--- a/data/financial_statements/soci/TT.xlsx
+++ b/data/financial_statements/soci/TT.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -134,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,144 +610,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>4372000000</v>
+        <v>4371900000</v>
       </c>
       <c r="C2">
-        <v>4190000000</v>
+        <v>4190400000</v>
       </c>
       <c r="D2">
-        <v>3356000000</v>
+        <v>3355500000</v>
       </c>
       <c r="E2">
-        <v>3569000000</v>
+        <v>3569300000</v>
       </c>
       <c r="F2">
-        <v>3720000000</v>
+        <v>3719800000</v>
       </c>
       <c r="G2">
         <v>3829700000</v>
@@ -742,20 +853,20 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>0.1753</v>
       </c>
       <c r="C3">
-        <v>0.0941</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="D3">
-        <v>0.1121</v>
+        <v>0.112</v>
       </c>
       <c r="E3">
-        <v>0.1226</v>
+        <v>0.1227</v>
       </c>
       <c r="F3">
         <v>0.06419999999999999</v>
@@ -864,23 +975,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>2940000000</v>
+        <v>2939100000</v>
       </c>
       <c r="C4">
-        <v>2872000000</v>
+        <v>2867000000</v>
       </c>
       <c r="D4">
-        <v>2367000000</v>
+        <v>2366500000</v>
       </c>
       <c r="E4">
-        <v>2525000000</v>
+        <v>2527800000</v>
       </c>
       <c r="F4">
-        <v>2522000000</v>
+        <v>2515600000</v>
       </c>
       <c r="G4">
         <v>2559000000</v>
@@ -986,23 +1097,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1432000000</v>
+        <v>1432800000</v>
       </c>
       <c r="C5">
-        <v>1319000000</v>
+        <v>1323400000</v>
       </c>
       <c r="D5">
         <v>989000000</v>
       </c>
       <c r="E5">
-        <v>1044000000</v>
+        <v>1041500000</v>
       </c>
       <c r="F5">
-        <v>1198000000</v>
+        <v>1204200000</v>
       </c>
       <c r="G5">
         <v>1270700000</v>
@@ -1108,8 +1219,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>693300000</v>
@@ -1124,7 +1235,7 @@
         <v>605800000</v>
       </c>
       <c r="F6">
-        <v>614000000</v>
+        <v>620800000</v>
       </c>
       <c r="G6">
         <v>619700000</v>
@@ -1230,8 +1341,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>739499800</v>
@@ -1352,8 +1463,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>56000000</v>
@@ -1393,23 +1504,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>2000000</v>
+        <v>55800000</v>
       </c>
       <c r="C9">
-        <v>2000000</v>
+        <v>55900000</v>
       </c>
       <c r="D9">
-        <v>1000000</v>
+        <v>56000000</v>
       </c>
       <c r="E9">
-        <v>1000000</v>
+        <v>56000000</v>
       </c>
       <c r="F9">
-        <v>1000000</v>
+        <v>57700000</v>
       </c>
       <c r="G9">
         <v>59300000</v>
@@ -1515,23 +1626,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>-3000000</v>
+        <v>-74500000</v>
       </c>
       <c r="C10">
-        <v>2000000</v>
+        <v>-57500000</v>
       </c>
       <c r="D10">
-        <v>15000000</v>
+        <v>-56700000</v>
       </c>
       <c r="E10">
-        <v>-4000000</v>
+        <v>-41100000</v>
       </c>
       <c r="F10">
-        <v>6000000</v>
+        <v>-64600000</v>
       </c>
       <c r="G10">
         <v>-59000000</v>
@@ -1637,23 +1748,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>665000000</v>
       </c>
       <c r="C11">
-        <v>653000000</v>
+        <v>653100000</v>
       </c>
       <c r="D11">
-        <v>332000000</v>
+        <v>331500000</v>
       </c>
       <c r="E11">
-        <v>395000000</v>
+        <v>394599900</v>
       </c>
       <c r="F11">
-        <v>519000000</v>
+        <v>518800000</v>
       </c>
       <c r="G11">
         <v>592000000</v>
@@ -1759,23 +1870,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>105000000</v>
+        <v>104700000</v>
       </c>
       <c r="C12">
-        <v>137000000</v>
+        <v>136600000</v>
       </c>
       <c r="D12">
-        <v>61000000</v>
+        <v>61100000</v>
       </c>
       <c r="E12">
-        <v>66000000</v>
+        <v>65500000</v>
       </c>
       <c r="F12">
-        <v>97000000</v>
+        <v>96800000</v>
       </c>
       <c r="G12">
         <v>122800000</v>
@@ -1881,8 +1992,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>560300000</v>
@@ -2003,8 +2114,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2038,8 +2149,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>4500000</v>
@@ -2160,23 +2271,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>548000000</v>
+        <v>547900000</v>
       </c>
       <c r="C16">
-        <v>509000000</v>
+        <v>509300000</v>
       </c>
       <c r="D16">
-        <v>260000000</v>
+        <v>260200000</v>
       </c>
       <c r="E16">
-        <v>318000000</v>
+        <v>317800000</v>
       </c>
       <c r="F16">
-        <v>406000000</v>
+        <v>405700000</v>
       </c>
       <c r="G16">
         <v>464700000</v>
@@ -2282,8 +2393,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2.34</v>
@@ -2298,7 +2409,7 @@
         <v>1.32</v>
       </c>
       <c r="F17">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="G17">
         <v>1.91</v>
@@ -2404,8 +2515,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>2.34</v>
@@ -2526,23 +2637,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>232000000</v>
+        <v>231900000</v>
       </c>
       <c r="C19">
-        <v>234000000</v>
+        <v>233800000</v>
       </c>
       <c r="D19">
-        <v>235000000</v>
+        <v>234600000</v>
       </c>
       <c r="E19">
-        <v>237000000</v>
+        <v>238700000</v>
       </c>
       <c r="F19">
-        <v>238000000</v>
+        <v>238200000</v>
       </c>
       <c r="G19">
         <v>239900000</v>
@@ -2648,23 +2759,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>234000000</v>
       </c>
       <c r="C20">
-        <v>236000000</v>
+        <v>235700000</v>
       </c>
       <c r="D20">
-        <v>237000000</v>
+        <v>237100000</v>
       </c>
       <c r="E20">
-        <v>241000000</v>
+        <v>242300000</v>
       </c>
       <c r="F20">
-        <v>242000000</v>
+        <v>241700000</v>
       </c>
       <c r="G20">
         <v>243400000</v>
@@ -2770,23 +2881,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0.3275</v>
+        <v>0.3277</v>
       </c>
       <c r="C21">
-        <v>0.3148</v>
+        <v>0.3158</v>
       </c>
       <c r="D21">
         <v>0.2947</v>
       </c>
       <c r="E21">
-        <v>0.2925</v>
+        <v>0.2918</v>
       </c>
       <c r="F21">
-        <v>0.322</v>
+        <v>0.3237</v>
       </c>
       <c r="G21">
         <v>0.3318</v>
@@ -2892,8 +3003,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0.1691</v>
@@ -3014,20 +3125,20 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.1521</v>
       </c>
       <c r="C23">
-        <v>0.1558</v>
+        <v>0.1559</v>
       </c>
       <c r="D23">
-        <v>0.0989</v>
+        <v>0.0988</v>
       </c>
       <c r="E23">
-        <v>0.1107</v>
+        <v>0.1106</v>
       </c>
       <c r="F23">
         <v>0.1395</v>
@@ -3136,8 +3247,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0.1253</v>
@@ -3149,7 +3260,7 @@
         <v>0.0775</v>
       </c>
       <c r="E24">
-        <v>0.0891</v>
+        <v>0.089</v>
       </c>
       <c r="F24">
         <v>0.1091</v>
@@ -3258,23 +3369,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>833000000</v>
+        <v>823399800</v>
       </c>
       <c r="C25">
-        <v>790000000</v>
+        <v>790399800</v>
       </c>
       <c r="D25">
-        <v>466000000</v>
+        <v>465499900</v>
       </c>
       <c r="E25">
-        <v>518000000</v>
+        <v>512101200</v>
       </c>
       <c r="F25">
-        <v>656000000</v>
+        <v>655599900</v>
       </c>
       <c r="G25">
         <v>725800000</v>
@@ -3380,8 +3491,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>739499800</v>
@@ -3502,8 +3613,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>560300000</v>
@@ -3624,8 +3735,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>-7900000</v>
@@ -3746,23 +3857,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>560000000</v>
+        <v>552400000</v>
       </c>
       <c r="C29">
-        <v>517000000</v>
+        <v>514900000</v>
       </c>
       <c r="D29">
-        <v>270000000</v>
+        <v>263400000</v>
       </c>
       <c r="E29">
-        <v>329000000</v>
+        <v>321099900</v>
       </c>
       <c r="F29">
-        <v>422000000</v>
+        <v>408700000</v>
       </c>
       <c r="G29">
         <v>469000000</v>
@@ -3868,8 +3979,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>2.4</v>
@@ -3990,8 +4101,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>2.38</v>
@@ -4112,8 +4223,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>-0.04</v>
@@ -4234,8 +4345,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>-0.04</v>
@@ -4356,8 +4467,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>2.3821</v>
@@ -4478,8 +4589,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>2.3607</v>
@@ -4600,8 +4711,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>234000000</v>
@@ -4722,23 +4833,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>0.1905</v>
+        <v>0.1883</v>
       </c>
       <c r="C37">
-        <v>0.1885</v>
+        <v>0.1886</v>
       </c>
       <c r="D37">
-        <v>0.1389</v>
+        <v>0.1387</v>
       </c>
       <c r="E37">
-        <v>0.1451</v>
+        <v>0.1435</v>
       </c>
       <c r="F37">
-        <v>0.1763</v>
+        <v>0.1762</v>
       </c>
       <c r="G37">
         <v>0.1895</v>
@@ -4844,8 +4955,8 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
         <v>0.1167</v>
